--- a/Documents/latestgantt_march01.xlsx
+++ b/Documents/latestgantt_march01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ucs35\OneDrive\Belgeler\GitHub\OJO\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_75BBFE4172FCA4E01390108C0210FB46A8994686" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{3DBD2C85-BC73-467E-AC5D-D261C789A279}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_75BBFE4172FCA4E01390108C0210FB46A8994686" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{5904BCA2-324E-4D61-92A6-9D17390E63F5}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
   <si>
     <t>Task Name</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>Demonstrating to the jury (customer)</t>
+  </si>
+  <si>
+    <t>"</t>
   </si>
 </sst>
 </file>
@@ -333,24 +336,6 @@
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -409,6 +394,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Açıklama Metni" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -2598,16 +2601,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>254160</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>152280</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>14400</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>4196</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3049,461 +3052,461 @@
   <sheetData>
     <row r="1" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:20" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
     </row>
     <row r="3" spans="2:20" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
     </row>
     <row r="4" spans="2:20" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="5">
         <f>C5</f>
         <v>42576</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
     </row>
     <row r="5" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="7">
         <v>42576</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="7">
         <v>42581</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="8">
         <f t="shared" ref="E5:E29" si="0">IF(ISBLANK(C5),"", (D5-C5))</f>
         <v>5</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="7">
         <v>42578</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="7">
         <v>42583</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="7">
         <v>42578</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="7">
         <v>42586</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="7">
         <v>42578</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="7">
         <v>42588</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="7">
         <v>42583</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="7">
         <v>42591</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="7">
         <v>42583</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="7">
         <v>42587</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="7">
         <v>42585</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="7">
         <v>42592</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="7">
         <v>42587</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="7">
         <v>42594</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="7">
         <v>42588</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="7">
         <v>42591</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="7">
         <v>42588</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="7">
         <v>42592</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="7">
         <v>42589</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="7">
         <v>42595</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F15" s="8"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="7">
         <v>42592</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="7">
         <v>42598</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="7">
         <v>42596</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="7">
         <v>42601</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F17" s="8"/>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="7">
         <v>42597</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="7">
         <v>42605</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F18" s="8"/>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="7">
         <v>42598</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="7">
         <v>42608</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="7">
         <v>42599</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="7">
         <v>42610</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="8">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F20" s="8"/>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="7">
         <v>42600</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="7">
         <v>42611</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="8">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F21" s="8"/>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14" t="str">
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14" t="str">
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F23" s="8"/>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14" t="str">
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F24" s="8"/>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14" t="str">
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F25" s="8"/>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="14" t="str">
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F26" s="8"/>
+      <c r="F26" s="2"/>
     </row>
     <row r="27" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="14" t="str">
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F27" s="8"/>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="14" t="str">
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="14" t="str">
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G32" s="15" t="s">
+      <c r="G32" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="4" t="s">
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
     </row>
     <row r="33" spans="8:16" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3" t="s">
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3547,731 +3550,731 @@
   <sheetData>
     <row r="1" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:22" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
     </row>
     <row r="3" spans="2:22" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
     </row>
     <row r="4" spans="2:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="5">
         <f>C5</f>
         <v>42576</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
     </row>
     <row r="5" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="7">
         <v>42576</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="7">
         <v>42581</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="14">
         <f t="shared" ref="E5:E29" si="0">IF(D5="","",SUM(F5:G5))</f>
         <v>5</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="15">
         <f t="shared" ref="F5:F29" si="1">IF(((D5)=""),"",(H5)*(D5-C5))</f>
         <v>2.5</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="16">
         <f t="shared" ref="G5:G29" si="2">IF(F5="","",(D5-C5)-F5)</f>
         <v>2.5</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="17">
         <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="7">
         <v>42578</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="7">
         <v>42583</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="15">
         <f t="shared" si="1"/>
         <v>3.75</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="16">
         <f t="shared" si="2"/>
         <v>1.25</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="17">
         <v>0.75</v>
       </c>
-      <c r="J6" s="24"/>
+      <c r="J6" s="18"/>
     </row>
     <row r="7" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="7">
         <v>42578</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="7">
         <v>42586</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="15">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="16">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="17">
         <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="7">
         <v>42580</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="7">
         <v>42588</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="15">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="7">
         <v>42583</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="7">
         <v>42591</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="15">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="16">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="17">
         <v>0.75</v>
       </c>
     </row>
     <row r="10" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="7">
         <v>42583</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="7">
         <v>42587</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="15">
         <f t="shared" si="1"/>
         <v>1.4</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="16">
         <f t="shared" si="2"/>
         <v>2.6</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="17">
         <v>0.35</v>
       </c>
     </row>
     <row r="11" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="7">
         <v>42585</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="7">
         <v>42592</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="15">
         <f t="shared" si="1"/>
         <v>1.75</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="16">
         <f t="shared" si="2"/>
         <v>5.25</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="17">
         <v>0.25</v>
       </c>
     </row>
     <row r="12" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="7">
         <v>42587</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="7">
         <v>42594</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="15">
         <f t="shared" si="1"/>
         <v>4.8999999999999995</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="16">
         <f t="shared" si="2"/>
         <v>2.1000000000000005</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="17">
         <v>0.7</v>
       </c>
     </row>
     <row r="13" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="7">
         <v>42585</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="7">
         <v>42591</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="15">
         <f t="shared" si="1"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="16">
         <f t="shared" si="2"/>
         <v>5.0999999999999996</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="17">
         <v>0.15</v>
       </c>
     </row>
     <row r="14" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="7">
         <v>42588</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="7">
         <v>42592</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="15">
         <f t="shared" si="1"/>
         <v>2.4</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="16">
         <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="17">
         <v>0.6</v>
       </c>
     </row>
     <row r="15" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="7">
         <v>42589</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="7">
         <v>42595</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="15">
         <f t="shared" si="1"/>
         <v>3.9000000000000004</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="16">
         <f t="shared" si="2"/>
         <v>2.0999999999999996</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="17">
         <v>0.65</v>
       </c>
     </row>
     <row r="16" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="7">
         <v>42592</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="7">
         <v>42598</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="15">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="16">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="17">
         <v>0.25</v>
       </c>
-      <c r="J16" s="25"/>
+      <c r="J16" s="19"/>
     </row>
     <row r="17" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="7">
         <v>42596</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="7">
         <v>42601</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="15">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="16">
         <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="17">
         <v>0.3</v>
       </c>
     </row>
     <row r="18" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="7">
         <v>42597</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="7">
         <v>42605</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="15">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="16">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="17">
         <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="7">
         <v>42598</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="7">
         <v>42608</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="15">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="16">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="17">
         <v>0.4</v>
       </c>
     </row>
     <row r="20" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="7">
         <v>42599</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="7">
         <v>42610</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="15">
         <f t="shared" si="1"/>
         <v>3.8499999999999996</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="16">
         <f t="shared" si="2"/>
         <v>7.15</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="17">
         <v>0.35</v>
       </c>
     </row>
     <row r="21" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="21">
         <v>42600</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="7">
         <v>42611</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="15">
         <f t="shared" si="1"/>
         <v>1.65</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="16">
         <f t="shared" si="2"/>
         <v>9.35</v>
       </c>
-      <c r="H21" s="28">
+      <c r="H21" s="22">
         <v>0.15</v>
       </c>
     </row>
     <row r="22" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="29"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="20" t="str">
+      <c r="B22" s="23"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F22" s="21" t="str">
+      <c r="F22" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G22" s="22" t="str">
+      <c r="G22" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H22" s="23"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="19"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="20" t="str">
+      <c r="B23" s="13"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F23" s="21" t="str">
+      <c r="F23" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G23" s="22" t="str">
+      <c r="G23" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H23" s="23"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="19"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="20" t="str">
+      <c r="B24" s="13"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F24" s="21" t="str">
+      <c r="F24" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G24" s="22" t="str">
+      <c r="G24" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H24" s="23"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="19"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="20" t="str">
+      <c r="B25" s="13"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F25" s="21" t="str">
+      <c r="F25" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G25" s="22" t="str">
+      <c r="G25" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H25" s="23"/>
+      <c r="H25" s="17"/>
     </row>
     <row r="26" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="19"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="20" t="str">
+      <c r="B26" s="13"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F26" s="21" t="str">
+      <c r="F26" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G26" s="22" t="str">
+      <c r="G26" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H26" s="23"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="19"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="20" t="str">
+      <c r="B27" s="13"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F27" s="21" t="str">
+      <c r="F27" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G27" s="22" t="str">
+      <c r="G27" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H27" s="23"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="19"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="20" t="str">
+      <c r="B28" s="13"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F28" s="21" t="str">
+      <c r="F28" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G28" s="22" t="str">
+      <c r="G28" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H28" s="23"/>
+      <c r="H28" s="17"/>
     </row>
     <row r="29" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="19"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="20" t="str">
+      <c r="B29" s="13"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F29" s="21" t="str">
+      <c r="F29" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G29" s="22" t="str">
+      <c r="G29" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H29" s="23"/>
+      <c r="H29" s="17"/>
     </row>
     <row r="30" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="30"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="18"/>
     </row>
     <row r="31" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="30"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="24"/>
-      <c r="J31" s="15" t="s">
+      <c r="B31" s="24"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="18"/>
+      <c r="J31" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K31" s="5" t="s">
+      <c r="K31" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="4" t="s">
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
     </row>
     <row r="32" spans="2:18" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="30"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="K32" s="3" t="s">
+      <c r="B32" s="24"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="K32" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3" t="s">
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
     </row>
     <row r="33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4313,8 +4316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:V64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AM19" sqref="AM19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AF28" sqref="U24:AF28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4338,794 +4341,797 @@
   <sheetData>
     <row r="1" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:22" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
     </row>
     <row r="3" spans="2:22" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
     </row>
     <row r="4" spans="2:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="5">
         <f>C5</f>
         <v>43157</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
     </row>
     <row r="5" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="7">
         <v>43157</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="25">
         <v>43162</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="26">
         <v>7</v>
       </c>
-      <c r="F5" s="33">
-        <f t="shared" ref="F5:F38" si="0">IF(((D5)=""),"",(H5)*(D5-C5))</f>
+      <c r="F5" s="27">
+        <f t="shared" ref="F5:F25" si="0">IF(((D5)=""),"",(H5)*(D5-C5))</f>
         <v>5</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="27">
         <v>0</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="7">
         <v>43157</v>
       </c>
-      <c r="D6" s="31">
-        <f t="shared" ref="D6:D38" si="1">IF(ISBLANK(E6),"",E6+C6)</f>
+      <c r="D6" s="25">
+        <f t="shared" ref="D6:D25" si="1">IF(ISBLANK(E6),"",E6+C6)</f>
         <v>43164</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="28">
         <v>7</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="27">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G6" s="33">
-        <f t="shared" ref="G6:G38" si="2">IF(F6="","",(D6-C6)-F6)</f>
+      <c r="G6" s="27">
+        <f t="shared" ref="G6:G25" si="2">IF(F6="","",(D6-C6)-F6)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="17">
         <v>1</v>
       </c>
-      <c r="J6" s="24"/>
+      <c r="J6" s="18"/>
     </row>
     <row r="7" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="7">
         <v>43157</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="25">
         <f t="shared" si="1"/>
         <v>43164</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="28">
         <v>7</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="27">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="7">
         <v>43157</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="25">
         <f t="shared" si="1"/>
         <v>43164</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="28">
         <v>7</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="27">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="7">
         <v>43162</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="25">
         <f t="shared" si="1"/>
         <v>43165</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="28">
         <v>3</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="27">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="7">
         <v>43162</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="25">
         <f t="shared" si="1"/>
         <v>43165</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="28">
         <v>3</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="27">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="7">
         <v>43164</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="25">
         <f t="shared" si="1"/>
         <v>43167</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="28">
         <v>3</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="27">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="7">
         <v>43164</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="25">
         <f t="shared" si="1"/>
         <v>43167</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="28">
         <v>3</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="27">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="7">
         <v>43164</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="25">
         <f t="shared" si="1"/>
         <v>43171</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="28">
         <v>7</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="27">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="7">
         <v>43166</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="25">
         <f t="shared" si="1"/>
         <v>43169</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="28">
         <v>3</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="27">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="7">
         <v>43166</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="25">
         <f t="shared" si="1"/>
         <v>43180</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="28">
         <v>14</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="27">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="7">
         <v>43185</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="25">
         <f t="shared" si="1"/>
         <v>43199</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="28">
         <v>14</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="27">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="35" t="s">
+    <row r="17" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="7">
         <v>43165</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="25">
         <f t="shared" si="1"/>
         <v>43168</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="28">
         <v>3</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="27">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="35" t="s">
+      <c r="V17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="7">
         <v>43215</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="25">
         <f t="shared" si="1"/>
         <v>43229</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="28">
         <v>14</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="27">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="19" t="s">
+    <row r="19" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="7">
         <v>43221</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="25">
         <f t="shared" si="1"/>
         <v>43225</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="28">
         <v>4</v>
       </c>
-      <c r="F19" s="33">
+      <c r="F19" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="27">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="19" t="s">
+    <row r="20" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="7">
         <v>43234</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="25">
         <f t="shared" si="1"/>
         <v>43238</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="28">
         <v>4</v>
       </c>
-      <c r="F20" s="33">
+      <c r="F20" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="27">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="19"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="31" t="str">
+    <row r="21" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="13"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="33" t="str">
+      <c r="E21" s="28"/>
+      <c r="F21" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G21" s="33" t="str">
+      <c r="G21" s="27" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="19"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="31" t="str">
+    <row r="22" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="13"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="33" t="str">
+      <c r="E22" s="28"/>
+      <c r="F22" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G22" s="33" t="str">
+      <c r="G22" s="27" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="17">
         <v>0</v>
       </c>
-      <c r="J22" s="25"/>
-    </row>
-    <row r="23" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="19"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="31" t="str">
+      <c r="J22" s="19"/>
+    </row>
+    <row r="23" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="13"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="33" t="str">
+      <c r="E23" s="28"/>
+      <c r="F23" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G23" s="33" t="str">
+      <c r="G23" s="27" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="19"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="31" t="str">
+    <row r="24" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="13"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="33" t="str">
+      <c r="E24" s="28"/>
+      <c r="F24" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G24" s="33" t="str">
+      <c r="G24" s="27" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="19"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="31" t="str">
+    <row r="25" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="13"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="33" t="str">
+      <c r="E25" s="28"/>
+      <c r="F25" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G25" s="33" t="str">
+      <c r="G25" s="27" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="19"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="23"/>
-    </row>
-    <row r="27" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="19"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="28"/>
-    </row>
-    <row r="28" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="29"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="23"/>
-    </row>
-    <row r="29" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="19"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="23"/>
-    </row>
-    <row r="30" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="19"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="23"/>
-    </row>
-    <row r="31" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="19"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="23"/>
-    </row>
-    <row r="32" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="19"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="23"/>
+    <row r="26" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="13"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="13"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="22"/>
+    </row>
+    <row r="28" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="23"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="17"/>
+    </row>
+    <row r="29" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="13"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="17"/>
+    </row>
+    <row r="30" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="13"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="17"/>
+    </row>
+    <row r="31" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="13"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="17"/>
+    </row>
+    <row r="32" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="13"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="17"/>
     </row>
     <row r="33" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="19"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="23"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="17"/>
     </row>
     <row r="34" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="19"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="23"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="17"/>
     </row>
     <row r="35" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="19"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="23"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="17"/>
     </row>
     <row r="36" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="19"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="23"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="17"/>
     </row>
     <row r="37" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="19"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="23"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="17"/>
     </row>
     <row r="38" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="19"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="23"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="17"/>
     </row>
     <row r="39" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="19"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="23"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="17"/>
     </row>
     <row r="40" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="19"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="23"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="17"/>
     </row>
     <row r="41" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="30"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="24"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="18"/>
     </row>
     <row r="42" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="30"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="24"/>
-      <c r="J42" s="15" t="s">
+      <c r="B42" s="24"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="18"/>
+      <c r="J42" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K42" s="5" t="s">
+      <c r="K42" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="4" t="s">
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
+      <c r="Q42" s="33"/>
+      <c r="R42" s="33"/>
     </row>
     <row r="43" spans="2:18" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="30"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="K43" s="3" t="s">
+      <c r="B43" s="24"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="K43" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3" t="s">
+      <c r="L43" s="34"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="34"/>
     </row>
     <row r="44" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Documents/latestgantt_march01.xlsx
+++ b/Documents/latestgantt_march01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ucs35\OneDrive\Belgeler\GitHub\OJO\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_75BBFE4172FCA4E01390108C0210FB46A8994686" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{5904BCA2-324E-4D61-92A6-9D17390E63F5}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="11_75BBFE4172FCA4E01390108C0210FB46A8994686" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{B7826BCD-234F-4044-A497-34B57DBD7680}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="45">
   <si>
     <t>Task Name</t>
   </si>
@@ -123,18 +123,6 @@
   </si>
   <si>
     <t>Percent Complete</t>
-  </si>
-  <si>
-    <t>Detecting 7 Segment with Raspberry</t>
-  </si>
-  <si>
-    <t>Getting Distance Info with Raspberry</t>
-  </si>
-  <si>
-    <t>Getting Orientation Info with Raspberry</t>
-  </si>
-  <si>
-    <t>Building the robot with new Chassis</t>
   </si>
   <si>
     <t>Detecting IR flags</t>
@@ -1742,18 +1730,6 @@
               <c:f>'Gantt Chart - Manual Duration'!$B$5:$B$40</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>Detecting 7 Segment with Raspberry</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Getting Distance Info with Raspberry</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Getting Orientation Info with Raspberry</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Building the robot with new Chassis</c:v>
-                </c:pt>
                 <c:pt idx="4">
                   <c:v>Detecting IR flags</c:v>
                 </c:pt>
@@ -1799,18 +1775,6 @@
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>43157</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43157</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43157</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43157</c:v>
-                </c:pt>
                 <c:pt idx="4">
                   <c:v>43162</c:v>
                 </c:pt>
@@ -1898,18 +1862,6 @@
               <c:f>'Gantt Chart - Manual Duration'!$B$5:$B$40</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>Detecting 7 Segment with Raspberry</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Getting Distance Info with Raspberry</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Getting Orientation Info with Raspberry</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Building the robot with new Chassis</c:v>
-                </c:pt>
                 <c:pt idx="4">
                   <c:v>Detecting IR flags</c:v>
                 </c:pt>
@@ -1955,18 +1907,6 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2069,18 +2009,6 @@
               <c:f>'Gantt Chart - Manual Duration'!$B$5:$B$40</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>Detecting 7 Segment with Raspberry</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Getting Distance Info with Raspberry</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Getting Orientation Info with Raspberry</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Building the robot with new Chassis</c:v>
-                </c:pt>
                 <c:pt idx="4">
                   <c:v>Detecting IR flags</c:v>
                 </c:pt>
@@ -2126,18 +2054,6 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
                 <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
@@ -2262,7 +2178,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43240"/>
-          <c:min val="43155"/>
+          <c:min val="43160"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -2601,16 +2517,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>119061</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>160193</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>136379</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>56029</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>211893</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4316,8 +4232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:V64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AF28" sqref="U24:AF28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4413,7 +4329,7 @@
       </c>
       <c r="K4" s="5">
         <f>C5</f>
-        <v>43157</v>
+        <v>0</v>
       </c>
       <c r="M4" s="36" t="s">
         <v>5</v>
@@ -4426,128 +4342,62 @@
       <c r="S4" s="36"/>
     </row>
     <row r="5" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="7">
-        <v>43157</v>
-      </c>
-      <c r="D5" s="25">
-        <v>43162</v>
-      </c>
-      <c r="E5" s="26">
-        <v>7</v>
-      </c>
-      <c r="F5" s="27">
-        <f t="shared" ref="F5:F25" si="0">IF(((D5)=""),"",(H5)*(D5-C5))</f>
-        <v>5</v>
-      </c>
-      <c r="G5" s="27">
-        <v>0</v>
-      </c>
-      <c r="H5" s="17">
-        <v>1</v>
-      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="7">
-        <v>43157</v>
-      </c>
-      <c r="D6" s="25">
-        <f t="shared" ref="D6:D25" si="1">IF(ISBLANK(E6),"",E6+C6)</f>
-        <v>43164</v>
-      </c>
-      <c r="E6" s="28">
-        <v>7</v>
-      </c>
-      <c r="F6" s="27">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="G6" s="27">
-        <f t="shared" ref="G6:G25" si="2">IF(F6="","",(D6-C6)-F6)</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="17">
-        <v>1</v>
-      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="17"/>
       <c r="J6" s="18"/>
     </row>
     <row r="7" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="7">
-        <v>43157</v>
-      </c>
-      <c r="D7" s="25">
-        <f t="shared" si="1"/>
-        <v>43164</v>
-      </c>
-      <c r="E7" s="28">
-        <v>7</v>
-      </c>
-      <c r="F7" s="27">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="G7" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="17">
-        <v>1</v>
-      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="7">
-        <v>43157</v>
-      </c>
-      <c r="D8" s="25">
-        <f t="shared" si="1"/>
-        <v>43164</v>
-      </c>
-      <c r="E8" s="28">
-        <v>7</v>
-      </c>
-      <c r="F8" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="27">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="H8" s="17">
-        <v>0</v>
-      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C9" s="7">
         <v>43162</v>
       </c>
       <c r="D9" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D6:D25" si="0">IF(ISBLANK(E9),"",E9+C9)</f>
         <v>43165</v>
       </c>
       <c r="E9" s="28">
         <v>3</v>
       </c>
       <c r="F9" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F5:F25" si="1">IF(((D9)=""),"",(H9)*(D9-C9))</f>
         <v>0</v>
       </c>
       <c r="G9" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G6:G25" si="2">IF(F9="","",(D9-C9)-F9)</f>
         <v>3</v>
       </c>
       <c r="H9" s="17">
@@ -4556,20 +4406,20 @@
     </row>
     <row r="10" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C10" s="7">
         <v>43162</v>
       </c>
       <c r="D10" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>43165</v>
       </c>
       <c r="E10" s="28">
         <v>3</v>
       </c>
       <c r="F10" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G10" s="27">
@@ -4582,20 +4432,20 @@
     </row>
     <row r="11" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="29" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C11" s="7">
         <v>43164</v>
       </c>
       <c r="D11" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>43167</v>
       </c>
       <c r="E11" s="28">
         <v>3</v>
       </c>
       <c r="F11" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G11" s="27">
@@ -4608,20 +4458,20 @@
     </row>
     <row r="12" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="29" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C12" s="7">
         <v>43164</v>
       </c>
       <c r="D12" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>43167</v>
       </c>
       <c r="E12" s="28">
         <v>3</v>
       </c>
       <c r="F12" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G12" s="27">
@@ -4634,20 +4484,20 @@
     </row>
     <row r="13" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C13" s="7">
         <v>43164</v>
       </c>
       <c r="D13" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>43171</v>
       </c>
       <c r="E13" s="28">
         <v>7</v>
       </c>
       <c r="F13" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G13" s="27">
@@ -4660,20 +4510,20 @@
     </row>
     <row r="14" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="29" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C14" s="7">
         <v>43166</v>
       </c>
       <c r="D14" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>43169</v>
       </c>
       <c r="E14" s="28">
         <v>3</v>
       </c>
       <c r="F14" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G14" s="27">
@@ -4686,20 +4536,20 @@
     </row>
     <row r="15" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="29" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C15" s="7">
         <v>43166</v>
       </c>
       <c r="D15" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>43180</v>
       </c>
       <c r="E15" s="28">
         <v>14</v>
       </c>
       <c r="F15" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G15" s="27">
@@ -4712,20 +4562,20 @@
     </row>
     <row r="16" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C16" s="7">
         <v>43185</v>
       </c>
       <c r="D16" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>43199</v>
       </c>
       <c r="E16" s="28">
         <v>14</v>
       </c>
       <c r="F16" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G16" s="27">
@@ -4738,20 +4588,20 @@
     </row>
     <row r="17" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="29" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>43165</v>
       </c>
       <c r="D17" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>43168</v>
       </c>
       <c r="E17" s="28">
         <v>3</v>
       </c>
       <c r="F17" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G17" s="27">
@@ -4762,25 +4612,25 @@
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="29" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C18" s="7">
         <v>43215</v>
       </c>
       <c r="D18" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>43229</v>
       </c>
       <c r="E18" s="28">
         <v>14</v>
       </c>
       <c r="F18" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G18" s="27">
@@ -4793,20 +4643,20 @@
     </row>
     <row r="19" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C19" s="7">
         <v>43221</v>
       </c>
       <c r="D19" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>43225</v>
       </c>
       <c r="E19" s="28">
         <v>4</v>
       </c>
       <c r="F19" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G19" s="27">
@@ -4819,20 +4669,20 @@
     </row>
     <row r="20" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C20" s="7">
         <v>43234</v>
       </c>
       <c r="D20" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>43238</v>
       </c>
       <c r="E20" s="28">
         <v>4</v>
       </c>
       <c r="F20" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G20" s="27">
@@ -4847,12 +4697,12 @@
       <c r="B21" s="13"/>
       <c r="C21" s="7"/>
       <c r="D21" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G21" s="27" t="str">
@@ -4867,12 +4717,12 @@
       <c r="B22" s="13"/>
       <c r="C22" s="7"/>
       <c r="D22" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G22" s="27" t="str">
@@ -4888,12 +4738,12 @@
       <c r="B23" s="13"/>
       <c r="C23" s="7"/>
       <c r="D23" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G23" s="27" t="str">
@@ -4908,12 +4758,12 @@
       <c r="B24" s="13"/>
       <c r="C24" s="7"/>
       <c r="D24" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E24" s="28"/>
       <c r="F24" s="27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G24" s="27" t="str">
@@ -4928,12 +4778,12 @@
       <c r="B25" s="13"/>
       <c r="C25" s="7"/>
       <c r="D25" s="25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E25" s="28"/>
       <c r="F25" s="27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G25" s="27" t="str">
